--- a/MetroLondres/output/xlsx/Calculo do menor trajeto entre duas estações--GTP-.xlsx
+++ b/MetroLondres/output/xlsx/Calculo do menor trajeto entre duas estações--GTP-.xlsx
@@ -140,16 +140,16 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Usuário do Metro Responde se deseja ou não alguma linha</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>SYSTEM Volta para o menu principal</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Usuário do Metro Responde se deseja ou não alguma linha</t>
-  </si>
-  <si>
-    <t>TC4</t>
   </si>
   <si>
     <t>TC5</t>
@@ -866,120 +866,120 @@
     <row r="31"/>
     <row r="32"/>
     <row r="33"/>
-    <row r="34">
-      <c r="A34" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s" s="7">
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36">
+      <c r="A36" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="E34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="C36" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="37">
-      <c r="A37" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s" s="4">
+      <c r="A37" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s" s="9">
+      <c r="A38" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s" s="8">
-        <v>2</v>
+      <c r="A39" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C40" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F40" t="s" s="5">
-        <v>25</v>
+      <c r="A40" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -990,16 +990,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D42" t="s" s="7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s" s="6">
         <v>2</v>
@@ -1010,16 +1010,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B43" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D43" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s" s="6">
         <v>2</v>
@@ -1028,39 +1028,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B44" t="s" s="7">
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B45" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="C44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45"/>
+      <c r="C45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="46">
       <c r="A46" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D46" t="s" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s" s="6">
         <v>2</v>
@@ -1070,139 +1070,139 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B47" t="s" s="7">
+      <c r="A47" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s" s="4">
         <v>44</v>
       </c>
-      <c r="C47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="E47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B48" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="C48" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49"/>
-    <row r="50"/>
+      <c r="C50" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="51">
-      <c r="A51" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B51" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F51" t="s" s="4">
+      <c r="A51" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B52" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F52" t="s" s="9">
+      <c r="A52" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B53" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s" s="8">
-        <v>2</v>
+      <c r="A53" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B54" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D54" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E54" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F54" t="s" s="5">
-        <v>25</v>
+      <c r="A54" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B54" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D55" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s" s="6">
         <v>2</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>2</v>
@@ -1234,10 +1234,10 @@
     <row r="57"/>
     <row r="58">
       <c r="A58" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s" s="6">
         <v>2</v>
@@ -1255,425 +1255,387 @@
     <row r="59"/>
     <row r="60">
       <c r="A60" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B60" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E60" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B63" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="C60" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E60" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B61" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C61" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E61" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B62" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C62" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="E62" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F62" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63"/>
+      <c r="C63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="64"/>
-    <row r="65">
-      <c r="A65" t="s" s="4">
+    <row r="65"/>
+    <row r="66">
+      <c r="A66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B66" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="C65" t="s" s="4">
+      <c r="C66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D65" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s" s="4">
+      <c r="D66" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F65" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="9">
+      <c r="F66" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B66" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s" s="9">
+      <c r="B67" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F66" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="8">
+      <c r="F67" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B67" t="s" s="8">
+      <c r="B68" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C67" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="5">
+      <c r="C68" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B68" t="s" s="5">
+      <c r="B69" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C68" t="s" s="5">
+      <c r="C69" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D68" t="s" s="5">
+      <c r="D69" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E68" t="s" s="5">
+      <c r="E69" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F68" t="s" s="5">
+      <c r="F69" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B69" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B70" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="10">
         <v>2.0</v>
       </c>
-      <c r="B70" t="s" s="7">
+      <c r="B71" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="C70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71"/>
+      <c r="C71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="72">
       <c r="A72" t="n" s="10">
         <v>3.0</v>
       </c>
       <c r="B72" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75">
+      <c r="A75" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B75" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
+      <c r="C75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
+      <c r="E75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B76" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
+      <c r="C76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77">
-      <c r="A77" t="n" s="10">
+      <c r="E76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" t="n" s="10">
         <v>6.0</v>
       </c>
-      <c r="B77" t="s" s="7">
+      <c r="B78" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="7">
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="E77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78"/>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="79"/>
     <row r="80"/>
-    <row r="81">
-      <c r="A81" t="s" s="4">
+    <row r="81"/>
+    <row r="82">
+      <c r="A82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B82" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D81" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s" s="4">
+      <c r="D82" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F81" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="9">
+      <c r="F82" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s" s="9">
+      <c r="B83" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F82" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="8">
+      <c r="F83" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B83" t="s" s="8">
+      <c r="B84" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="5">
+      <c r="C84" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B84" t="s" s="5">
+      <c r="B85" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C84" t="s" s="5">
+      <c r="C85" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D84" t="s" s="5">
+      <c r="D85" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E84" t="s" s="5">
+      <c r="E85" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F84" t="s" s="5">
+      <c r="F85" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B85" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="10">
         <v>2.0</v>
       </c>
-      <c r="B86" t="s" s="7">
+      <c r="B87" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="C86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="7">
+      <c r="C87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="E86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87"/>
-    <row r="88">
-      <c r="A88" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B88" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F88" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="E87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88"/>
     <row r="89">
       <c r="A89" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B89" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D89" t="s" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E89" t="s" s="6">
         <v>2</v>
@@ -1684,10 +1646,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B90" t="s" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s" s="6">
         <v>2</v>
@@ -1704,140 +1666,140 @@
     </row>
     <row r="91"/>
     <row r="92"/>
-    <row r="93"/>
+    <row r="93">
+      <c r="A93" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B93" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="94">
-      <c r="A94" t="s" s="4">
+      <c r="A94" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B94" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97">
+      <c r="A97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B97" t="s" s="4">
         <v>48</v>
       </c>
-      <c r="C94" t="s" s="4">
+      <c r="C97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D94" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E94" t="s" s="4">
+      <c r="D97" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F94" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="9">
+      <c r="F97" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B95" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E95" t="s" s="9">
+      <c r="B98" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F95" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="8">
+      <c r="F98" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B96" t="s" s="8">
+      <c r="B99" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C96" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E96" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F96" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="5">
+      <c r="C99" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B97" t="s" s="5">
+      <c r="B100" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C97" t="s" s="5">
+      <c r="C100" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D97" t="s" s="5">
+      <c r="D100" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E97" t="s" s="5">
+      <c r="E100" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F97" t="s" s="5">
+      <c r="F100" t="s" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B98" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F98" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B99" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C99" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E99" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100"/>
     <row r="101">
       <c r="A101" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B101" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D101" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s" s="6">
         <v>2</v>
@@ -1848,31 +1810,50 @@
     </row>
     <row r="102">
       <c r="A102" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B102" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B103" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C102" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E102" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F102" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103"/>
+      <c r="C103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="104">
       <c r="A104" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B104" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s" s="6">
         <v>2</v>
@@ -1888,121 +1869,121 @@
       </c>
     </row>
     <row r="105"/>
-    <row r="106"/>
+    <row r="106">
+      <c r="A106" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="107"/>
     <row r="108"/>
-    <row r="109">
-      <c r="A109" t="s" s="4">
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B109" t="s" s="4">
+      <c r="B110" t="s" s="4">
         <v>49</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D109" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E109" t="s" s="4">
+      <c r="D110" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F109" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="9">
+      <c r="F110" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B110" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C110" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s" s="9">
+      <c r="B111" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F110" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="8">
+      <c r="F111" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B111" t="s" s="8">
+      <c r="B112" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C111" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F111" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="5">
+      <c r="C112" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B112" t="s" s="5">
+      <c r="B113" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C112" t="s" s="5">
+      <c r="C113" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D112" t="s" s="5">
+      <c r="D113" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E112" t="s" s="5">
+      <c r="E113" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F112" t="s" s="5">
+      <c r="F113" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B113" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C113" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E113" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F113" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B114" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C114" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D114" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E114" t="s" s="6">
         <v>2</v>
@@ -2013,31 +1994,50 @@
     </row>
     <row r="115">
       <c r="A115" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B115" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="10">
         <v>3.0</v>
       </c>
-      <c r="B115" t="s" s="7">
+      <c r="B116" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F115" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116"/>
+      <c r="C116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="117">
       <c r="A117" t="n" s="10">
         <v>4.0</v>
       </c>
       <c r="B117" t="s" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s" s="6">
         <v>2</v>
@@ -2053,38 +2053,19 @@
       </c>
     </row>
     <row r="118"/>
-    <row r="119">
-      <c r="A119" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B119" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C119" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D119" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E119" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F119" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="119"/>
     <row r="120">
       <c r="A120" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B120" t="s" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C120" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D120" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E120" t="s" s="6">
         <v>2</v>
@@ -2095,138 +2076,138 @@
     </row>
     <row r="121">
       <c r="A121" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B121" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="10">
         <v>7.0</v>
       </c>
-      <c r="B121" t="s" s="7">
+      <c r="B122" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="C121" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="E121" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F121" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122"/>
+      <c r="C122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="E122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="123"/>
-    <row r="124">
-      <c r="A124" t="s" s="4">
+    <row r="124"/>
+    <row r="125">
+      <c r="A125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B125" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D124" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E124" t="s" s="4">
+      <c r="D125" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F124" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="9">
+      <c r="F125" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B125" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C125" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D125" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s" s="9">
+      <c r="B126" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F125" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="8">
+      <c r="F126" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B126" t="s" s="8">
+      <c r="B127" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C126" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F126" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="5">
+      <c r="C127" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B127" t="s" s="5">
+      <c r="B128" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C127" t="s" s="5">
+      <c r="C128" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D127" t="s" s="5">
+      <c r="D128" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E127" t="s" s="5">
+      <c r="E128" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F127" t="s" s="5">
+      <c r="F128" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B128" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C128" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D128" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E128" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F128" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B129" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C129" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D129" t="s" s="7">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E129" t="s" s="6">
         <v>2</v>
@@ -2235,183 +2216,202 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B130" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C130" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D130" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E130" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F130" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="130"/>
     <row r="131"/>
     <row r="132">
-      <c r="A132" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B132" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C132" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D132" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E132" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F132" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133"/>
+      <c r="A132" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="C132" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F132" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B133" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F133" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
     <row r="134">
-      <c r="A134" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B134" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C134" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D134" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E134" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F134" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135"/>
+      <c r="A134" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C135" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E135" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F135" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
     <row r="136">
       <c r="A136" t="n" s="10">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B136" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C136" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E136" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B137" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C137" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E137" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B138" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C136" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D136" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="E136" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F136" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137"/>
-    <row r="138"/>
+      <c r="C138" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E138" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B139" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="C139" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E139" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F139" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B140" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C140" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E140" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F140" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B141" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C141" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D141" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E141" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F141" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A139" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B139" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C139" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E139" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140"/>
+    <row r="141"/>
     <row r="142">
-      <c r="A142" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B142" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C142" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D142" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E142" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F142" t="s" s="5">
-        <v>25</v>
+      <c r="A142" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B142" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E142" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B143" t="s" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C143" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D143" t="s" s="7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E143" t="s" s="6">
         <v>2</v>
@@ -2428,23 +2428,23 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:F134"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
